--- a/csec/database/Human and Social Biology data.xlsx
+++ b/csec/database/Human and Social Biology data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -19,6 +19,72 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Human and Social Biology January 2023 P032.pdf</t>
+  </si>
+  <si>
+    <t>1_uBJH8LZKZngbB6s7D99ocaCTOULOBAv</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Lu25dY4FbnndBGJBBzhQlV2FFVc_KMmf</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>15ddKfz4pSxzIDZrsnRvTsIoADO-Syv11</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>1aENfgxy7ilfUJReDwTYSV5tU6DOs7_yQ</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1sUq9jx_FNYTSyaKhWpQMM2AimD6wSNZe</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1wtU6rf26DJ5mdDjvhKouUfKABRrr4R_l</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1yNMyhRACauIuzX2YZ70QdfGsmbKnWjSk</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1yRZIs3abrEn8bkBq_hLFYHq3CzlBRtJq</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology January 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1kFKP0nEBqKPjb7Y7WyNj3jf4wEXIm8iM</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1JcKpGtNWkvl58cSvW6LuFtW8wjAtv3FB</t>
+  </si>
+  <si>
+    <t>CSEC Human and Social Biology 2008 P1 Specimen.pdf</t>
+  </si>
+  <si>
+    <t>18IcgZJcU341XTzKwQddnR_nFPrsd6vRx</t>
+  </si>
+  <si>
     <t>CSEC Human and Social Biology June 2009 P2.pdf</t>
   </si>
   <si>
@@ -53,12 +119,6 @@
   </si>
   <si>
     <t>1t-8k9VBbwC0C-WuxqtYxNLVh1Ie-ooEr</t>
-  </si>
-  <si>
-    <t>Human and Social Biology Specimen 2008 P1.pdf</t>
-  </si>
-  <si>
-    <t>18IcgZJcU341XTzKwQddnR_nFPrsd6vRx</t>
   </si>
   <si>
     <t>CSEC Human and Social Biology June 2015 P2.pdf</t>
@@ -631,6 +691,86 @@
         <v>51</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
